--- a/MainTop/12.02.2025/ВБ_добавить.xlsx
+++ b/MainTop/12.02.2025/ВБ_добавить.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\12.02.2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29754934-94E0-48FD-92EB-A85D6833B444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7912F0DD-01C1-402B-9A44-AE0C540D0CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -437,7 +437,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
